--- a/medicine/Enfance/Michel_Piquemal/Michel_Piquemal.xlsx
+++ b/medicine/Enfance/Michel_Piquemal/Michel_Piquemal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Michel Piquemal, né le 17 décembre 1954 à Béziers (Hérault), est un écrivain français.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michel Piquemal est diplômé d'un doctorat de lettres[1], a suivi des études de sciences de l'éducation, puis a été instituteur[1],[2]. Son premier roman jeunesse Samani, l'Indien solitaire, est paru en 1988. Il a depuis publié plus de 200 titres[3]. Entre autres thèmes, il s'intéresse aux Amérindiens[4], et à la philosophie. Ses ouvrages ont été couronnés de plusieurs prix, dont le Prix des Incorruptibles[5] en 2006.
-Il a créé et dirige les collections « Carnets de Sagesse » et « Paroles de » aux éditions Albin Michel[1], et a publié de nombreux ouvrages de philosophie à destination de la jeunesse (Les Philo-fables, Le Conteur philosophe, Piccolo-philo…). C'est un ardent défenseur de la pratique de la philosophie à l'école primaire[6].
-Il est aussi l'auteur d'ouvrages pour adultes : son premier roman, Le Cri du poisson rouge, « conte cruel et drolatique »[7] selon la critique du magazine Télérama, est publié en 2001. Il est également l'auteur d'essais (Heureux sans dieu ni religion, Hugo et Cie) et d'un pamphlet antilibéral (Le Prophète du libéralisme[8], Ed. Mille et une nuits, sous le pseudonyme de Kosy Libran, paru en 2005).En 1989, il obtient le grand prix de jeunesse avec son roman le Jobard.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michel Piquemal est diplômé d'un doctorat de lettres, a suivi des études de sciences de l'éducation, puis a été instituteur,. Son premier roman jeunesse Samani, l'Indien solitaire, est paru en 1988. Il a depuis publié plus de 200 titres. Entre autres thèmes, il s'intéresse aux Amérindiens, et à la philosophie. Ses ouvrages ont été couronnés de plusieurs prix, dont le Prix des Incorruptibles en 2006.
+Il a créé et dirige les collections « Carnets de Sagesse » et « Paroles de » aux éditions Albin Michel, et a publié de nombreux ouvrages de philosophie à destination de la jeunesse (Les Philo-fables, Le Conteur philosophe, Piccolo-philo…). C'est un ardent défenseur de la pratique de la philosophie à l'école primaire.
+Il est aussi l'auteur d'ouvrages pour adultes : son premier roman, Le Cri du poisson rouge, « conte cruel et drolatique » selon la critique du magazine Télérama, est publié en 2001. Il est également l'auteur d'essais (Heureux sans dieu ni religion, Hugo et Cie) et d'un pamphlet antilibéral (Le Prophète du libéralisme, Ed. Mille et une nuits, sous le pseudonyme de Kosy Libran, paru en 2005).En 1989, il obtient le grand prix de jeunesse avec son roman le Jobard.
 </t>
         </is>
       </c>
@@ -546,8 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Années 1980 et 1990
-1988
+          <t>Années 1980 et 1990</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1988
 Samani, l'Indien solitaire, Messidor La Farandole
 Le Pionnier du Nouveau Monde, illustrations de Gilles Scheid, Milan, coll. « Milan Poche junior »
 1989
@@ -647,9 +666,43 @@
 Le Grand Livre contre le racisme, collectif d'auteurs, Rue du monde
 Petite Brocante intime, collectif avec Philippe Delerm et al., Le Pré aux Clercs
 Paroles pour les animaux, avec Théodore Monod, illustrations de Laurent Corvaisier, Albin Michel, coll. « Carnets de sagesse »
-La Mer a disparu, illustrations de François Breut, Nathan, coll. « Demi-Lune » ; réédition, Nathan, coll. « Nathan poche », 2006
-Années 2000
-2000
+La Mer a disparu, illustrations de François Breut, Nathan, coll. « Demi-Lune » ; réédition, Nathan, coll. « Nathan poche », 2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Michel_Piquemal</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel_Piquemal</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Années 2000</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2000
 Madame Dondon, illustrations de Nathalie Choux, Albin Michel Jeunesse
 Indiens, Indiennes, illustrations de Marcelino Truong, Nathan, coll. « Kaléidoc »
 Adolescente solitude, illustrations de Éric Battut, Lo Païs d'enfance
@@ -667,7 +720,7 @@
 Le Dico rigolo des expressions, Albin Michel Jeunesse
 Mon premier Hugo, illustrations de Marc Daniau, Milan, coll. « Milan poche Junior »
 Le Sandwich de mammouth, illustrations de Lionel Le Néouanic, Milan, coll. « Milan poche Benjamin »
-Le Cri du poisson rouge[7], Eden - roman adulte
+Le Cri du poisson rouge, Eden - roman adulte
 Les Noces du soleil, illustrations de Anne Buguet, Lo PaÏs d'enfance
 Les Indiens des plaines d'Amérique, Le Sorbier
 Feuilles d'herbes de Walt Whitman, illustrations de Michele Ferri, Albin Michel
@@ -695,8 +748,8 @@
 Tokala l'Indien-cheval
 Robin des Bois, illustrations de Séra, Albin Michel Jeunesse, coll. « Grandes Aventures racontées aux enfants »
 Histoires de chats, illustrations de Ghislain Loupias, Sedrap
-La Boîte à cauchemars, illustrations de Frédéric Pillot, Milan - Prix des Incorruptibles 2006[5]
-Mon miel, ma douceur, illustrations d'Élodie Nouhen, Didier Jeunesse - Prix Chrétien de Troyes 2005[5]
+La Boîte à cauchemars, illustrations de Frédéric Pillot, Milan - Prix des Incorruptibles 2006
+Mon miel, ma douceur, illustrations d'Élodie Nouhen, Didier Jeunesse - Prix Chrétien de Troyes 2005
 Mon premier Rimbaud, illustrations de Marc Daniau, Milan, coll. « Milan poche Junior »
 La Pétoche du géant poilu, illustrations de Philippe Diemunsch, Milan, coll. « Milan poche Benjamin »
 Les Aventures de Freddy la truffe, avec Gérard Moncomble, illustrations de Jorg Mühle, Milan, coll. « Milan poche Cadet »
@@ -706,7 +759,7 @@
 2005
 Made in Guadany, illustrations de Jacek Woźniak, Mauvaise graine
 Le Manège de Petit Pierre, illustrations de Christophe Merlin, Albin Michel Jeunesse
-Le Prophète du libéralisme[8], sous le pseudonyme de Kosy Libran [lire en ligne]
+Le Prophète du libéralisme, sous le pseudonyme de Kosy Libran [lire en ligne]
 2006
 Mon premier La Fontaine, illustrations de Marc Daniau, Milan, coll. « Milan poche Junior »
 Frankenstein
@@ -719,7 +772,7 @@
 Roméo et Juliette, adapté de William Shakespeare, illustrations de Natahlie Novi, Albin Michel Jeunesse
 Fables mythologiques, les héros et les monstres, illustrations de Séverin Millet, Albin Michel Jeunesse
 Dauphins, princes de la mer, illustrations de Charlotte Gastaut, Père Castor-Flammarion
-Dis, d'où ça vient ? Petites histoires de nos gestes quotidiens, illustrations de Fernando Puig-Rosado, De La Martinière Jeunesse - Prix Presse des Jeunes, Junior 2006[5]
+Dis, d'où ça vient ? Petites histoires de nos gestes quotidiens, illustrations de Fernando Puig-Rosado, De La Martinière Jeunesse - Prix Presse des Jeunes, Junior 2006
 Les Nouvelles Aventures de Freddy La truffe, Milan, coll. « Milan poche Cadet »
 Contes de pourquoi
 Léopold et moi
@@ -732,7 +785,7 @@
 Courageuse Maman panthère
 Petit Sanglier apprivoisé
 Philo-fables poche
-Les Deux Soldats, illustrations de Julien Billaudeau, Rue du monde[9]
+Les Deux Soldats, illustrations de Julien Billaudeau, Rue du monde
 2009
 La Pierre des deux mondes, Tertium, coll. Volubile ( (ISBN 9782916132204))
 De la terre au soleil, illustrations de Barroux, Didier Jeunesse
@@ -742,9 +795,43 @@
 J’ai 4 ans, je suis grande, illustrations de Cécile Geiger, L'Édune
 Achète-moi la moto rouge, illustrations de Thomas Baas, Albin Michel Jeunesse, coll. « Piccolophilo »
 C’est pas juste, illustrations de Thomas Baas, Albin Michel Jeunesse, coll. « Piccolophilo »
-Bonjour, petit chou, bonne nuit mon amour, illustrations de Géraldine Cosneau, Hatier Jeunesse
-Années 2010
-2010
+Bonjour, petit chou, bonne nuit mon amour, illustrations de Géraldine Cosneau, Hatier Jeunesse</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Michel_Piquemal</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel_Piquemal</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Années 2010</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2010
  Frères des grandes plaines, illustrateur Charles Dutertre, narrateur Hubert Drac, Bayard jeunesse - album-CD
 C’est quoi la mort, illustrations de Thomas Baas, Albin Michel Jeunesse, coll. « Piccolophilo »
 Parle moi petit chat, illustrations de Thomas Baas, Albin Michel Jeunesse, coll. « Piccolophilo »
@@ -757,7 +844,7 @@
 Liu Chan et la carpe sacrée, illustrations de Quitterie de Castelbajac, Le Ricochet
 La Neige vive, illustrations de Nathalie Novi, Didier jeunesse
 Pensées éclairs... de l’école des profiteroles, illustrations de Audrey Calleja, L'Édune
-Les Philo-fables pour la terre, illustrations de  Lagautrière, Albin Michel[10] ; réédition format poche, Albin Michel Jeunesse, 2014
+Les Philo-fables pour la terre, illustrations de  Lagautrière, Albin Michel ; réédition format poche, Albin Michel Jeunesse, 2014
 C'est à moi !, illustrations de Thomas Baas, Albin Michel Jeunesse, coll. « Piccolophilo »
 Aïe j'ai mal !, illustrations de Thomas Baas, Albin Michel Jeunesse, coll. « Piccolophilo »
 Histoires d'ours, Sédrap
@@ -805,7 +892,7 @@
 2015
 L'Affreux Géant Wendigo, série Petits Cheyennes, illustrations de Peggy Nille, Hatier Jeunesse
 Et si demain..., Le Muscadier, coll. « Place du Marché » ( (ISBN 9791090685499))
-Nour et le peuple des loups, illustrations de Emmanuel Roudier, Rue du Monde, coll « Romans du monde » ( (ISBN 9782355043772)) - Prix du roman historique jeunesse[11]
+Nour et le peuple des loups, illustrations de Emmanuel Roudier, Rue du Monde, coll « Romans du monde » ( (ISBN 9782355043772)) - Prix du roman historique jeunesse
 La Soupe magique des petits lutins, Sédrap
 Oryn, éd. Tertium, 2016
 Heureux sans Dieu, CD, Stanké
@@ -830,9 +917,43 @@
 Frère ami, Rue du monde
 Contes indiens du petit peuple du ciel, Tertium
 King Kong, illustré par Christophe Blain, Hachette jeunesse, coll. « Robinson »
-L'Éléphante qui cherchait la pluie, illustrations de Alex Godard, Albin Michel Jeunesse ( (ISBN 9782226443434))
-Année 2020
-Grignoti, grignota, Milan
+L'Éléphante qui cherchait la pluie, illustrations de Alex Godard, Albin Michel Jeunesse ( (ISBN 9782226443434))</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Michel_Piquemal</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel_Piquemal</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Année 2020</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Grignoti, grignota, Milan
 Jean Moulin, biterrois artistes et résistant, éd CS
 Le Courage de Nao, illustrations de Zaü, Rue du monde ( (ISBN 9782355046209))
 Et si demain... le retour, Le Muscadier, coll. « Rester vivant » ( (ISBN 9791096935635))
@@ -852,34 +973,36 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Michel_Piquemal</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Michel_Piquemal</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Liste non exhaustive[5] :
-1989 : Grand Prix du Livre pour la Jeunesse (Ministère Jeunesse et Sports)[2] pour Le Jobard
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Liste non exhaustive :
+1989 : Grand Prix du Livre pour la Jeunesse (Ministère Jeunesse et Sports) pour Le Jobard
 2005 : Prix Chrétien de Troyes pour Mon miel ma douceur, édition bilingue français-arabe (Didier)
 2006 : Prix Presse des Jeunes - Junior, pour Dis, d'où ça vient ? : Petites histoires pour expliquer nos gestes quotidiens (Éditions de La Martinière)
 2006 : Prix des Incorruptibles - CP pour La Boîte à cauchemars (Milan)
